--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam4-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H2">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I2">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J2">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>20.399843555888</v>
+        <v>31.76920417251267</v>
       </c>
       <c r="R2">
-        <v>183.598592002992</v>
+        <v>285.922837552614</v>
       </c>
       <c r="S2">
-        <v>0.02160062450411264</v>
+        <v>0.03391992477648337</v>
       </c>
       <c r="T2">
-        <v>0.02160062450411264</v>
+        <v>0.03391992477648337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H3">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I3">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J3">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>91.71294885538667</v>
+        <v>116.7132749434855</v>
       </c>
       <c r="R3">
-        <v>825.4165396984801</v>
+        <v>1050.41947449137</v>
       </c>
       <c r="S3">
-        <v>0.09711138053400915</v>
+        <v>0.1246145633677967</v>
       </c>
       <c r="T3">
-        <v>0.09711138053400915</v>
+        <v>0.1246145633677967</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H4">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I4">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J4">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>101.2652460448533</v>
+        <v>112.0284468324233</v>
       </c>
       <c r="R4">
-        <v>911.3872144036801</v>
+        <v>1008.25602149181</v>
       </c>
       <c r="S4">
-        <v>0.1072259475490001</v>
+        <v>0.1196125804331573</v>
       </c>
       <c r="T4">
-        <v>0.1072259475490001</v>
+        <v>0.1196125804331572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H5">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I5">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J5">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>16.15140246256533</v>
+        <v>20.431290938104</v>
       </c>
       <c r="R5">
-        <v>145.362622163088</v>
+        <v>183.881618442936</v>
       </c>
       <c r="S5">
-        <v>0.0171021105555477</v>
+        <v>0.02181445427287585</v>
       </c>
       <c r="T5">
-        <v>0.0171021105555477</v>
+        <v>0.02181445427287584</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.109744</v>
+        <v>1.412252666666667</v>
       </c>
       <c r="H6">
-        <v>3.329232</v>
+        <v>4.236758</v>
       </c>
       <c r="I6">
-        <v>0.3385593670631844</v>
+        <v>0.409051039104018</v>
       </c>
       <c r="J6">
-        <v>0.3385593670631844</v>
+        <v>0.4090510391040179</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>90.20937594534934</v>
+        <v>102.1726061535178</v>
       </c>
       <c r="R6">
-        <v>811.884383508144</v>
+        <v>919.5534553816601</v>
       </c>
       <c r="S6">
-        <v>0.09551930392051482</v>
+        <v>0.1090895162537048</v>
       </c>
       <c r="T6">
-        <v>0.09551930392051483</v>
+        <v>0.1090895162537048</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.023056</v>
       </c>
       <c r="I7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J7">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>12.396260129904</v>
+        <v>15.169825398672</v>
       </c>
       <c r="R7">
-        <v>111.566341169136</v>
+        <v>136.528428588048</v>
       </c>
       <c r="S7">
-        <v>0.01312593204883051</v>
+        <v>0.01619679654552215</v>
       </c>
       <c r="T7">
-        <v>0.01312593204883051</v>
+        <v>0.01619679654552215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.023056</v>
       </c>
       <c r="I8">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J8">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
-        <v>55.73070049176</v>
+        <v>55.73070049175998</v>
       </c>
       <c r="R8">
-        <v>501.57630442584</v>
+        <v>501.5763044258399</v>
       </c>
       <c r="S8">
-        <v>0.05901113561854819</v>
+        <v>0.05950357327668971</v>
       </c>
       <c r="T8">
-        <v>0.05901113561854819</v>
+        <v>0.0595035732766897</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>2.023056</v>
       </c>
       <c r="I9">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J9">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>61.53529210415999</v>
+        <v>53.49369058487999</v>
       </c>
       <c r="R9">
-        <v>553.81762893744</v>
+        <v>481.4432152639199</v>
       </c>
       <c r="S9">
-        <v>0.06515739862667723</v>
+        <v>0.05711512163800278</v>
       </c>
       <c r="T9">
-        <v>0.06515739862667724</v>
+        <v>0.05711512163800277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>2.023056</v>
       </c>
       <c r="I10">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J10">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>9.814633423055998</v>
+        <v>9.755960977727998</v>
       </c>
       <c r="R10">
-        <v>88.33170080750398</v>
+        <v>87.80364879955199</v>
       </c>
       <c r="S10">
-        <v>0.01039234495284922</v>
+        <v>0.01041642279390683</v>
       </c>
       <c r="T10">
-        <v>0.01039234495284922</v>
+        <v>0.01041642279390683</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>2.023056</v>
       </c>
       <c r="I11">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="J11">
-        <v>0.2057304984733349</v>
+        <v>0.1953222626748136</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>54.81703265572799</v>
+        <v>48.78751722768</v>
       </c>
       <c r="R11">
-        <v>493.353293901552</v>
+        <v>439.08765504912</v>
       </c>
       <c r="S11">
-        <v>0.0580436872264297</v>
+        <v>0.05209034842069217</v>
       </c>
       <c r="T11">
-        <v>0.05804368722642971</v>
+        <v>0.05209034842069218</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H12">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I12">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J12">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>6.457041126004667</v>
+        <v>21.161028210302</v>
       </c>
       <c r="R12">
-        <v>58.11337013404201</v>
+        <v>190.449253892718</v>
       </c>
       <c r="S12">
-        <v>0.006837117176331606</v>
+        <v>0.02259359350611383</v>
       </c>
       <c r="T12">
-        <v>0.006837117176331605</v>
+        <v>0.02259359350611382</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H13">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I13">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J13">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>29.02935411852555</v>
+        <v>77.74110079007664</v>
       </c>
       <c r="R13">
-        <v>261.26418706673</v>
+        <v>699.6699071106899</v>
       </c>
       <c r="S13">
-        <v>0.03073808758352955</v>
+        <v>0.08300403990358601</v>
       </c>
       <c r="T13">
-        <v>0.03073808758352954</v>
+        <v>0.08300403990358599</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H14">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I14">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J14">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>32.05288592313111</v>
+        <v>74.62060147632998</v>
       </c>
       <c r="R14">
-        <v>288.47597330818</v>
+        <v>671.5854132869699</v>
       </c>
       <c r="S14">
-        <v>0.03393959131117339</v>
+        <v>0.07967228814132639</v>
       </c>
       <c r="T14">
-        <v>0.03393959131117339</v>
+        <v>0.07967228814132638</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H15">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I15">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J15">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>5.11230733989311</v>
+        <v>13.609000765848</v>
       </c>
       <c r="R15">
-        <v>46.01076605903799</v>
+        <v>122.481006892632</v>
       </c>
       <c r="S15">
-        <v>0.005413229316985469</v>
+        <v>0.01453030676355652</v>
       </c>
       <c r="T15">
-        <v>0.005413229316985468</v>
+        <v>0.01453030676355652</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3512606666666667</v>
+        <v>0.9406819999999999</v>
       </c>
       <c r="H16">
-        <v>1.053782</v>
+        <v>2.822046</v>
       </c>
       <c r="I16">
-        <v>0.1071621824320374</v>
+        <v>0.2724632487150169</v>
       </c>
       <c r="J16">
-        <v>0.1071621824320373</v>
+        <v>0.2724632487150168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>28.55343712977711</v>
+        <v>68.05576209571332</v>
       </c>
       <c r="R16">
-        <v>256.980934167994</v>
+        <v>612.50185886142</v>
       </c>
       <c r="S16">
-        <v>0.03023415704401734</v>
+        <v>0.07266302040043413</v>
       </c>
       <c r="T16">
-        <v>0.03023415704401735</v>
+        <v>0.07266302040043413</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H17">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I17">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J17">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>21.001704235345</v>
+        <v>1.315314179640334</v>
       </c>
       <c r="R17">
-        <v>189.015338118105</v>
+        <v>11.837827616763</v>
       </c>
       <c r="S17">
-        <v>0.0222379120649277</v>
+        <v>0.001404358692417109</v>
       </c>
       <c r="T17">
-        <v>0.0222379120649277</v>
+        <v>0.001404358692417109</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H18">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I18">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J18">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>94.41877439575833</v>
+        <v>4.832183540129444</v>
       </c>
       <c r="R18">
-        <v>849.7689695618249</v>
+        <v>43.48965186116499</v>
       </c>
       <c r="S18">
-        <v>0.09997647708786662</v>
+        <v>0.005159314073380777</v>
       </c>
       <c r="T18">
-        <v>0.09997647708786661</v>
+        <v>0.005159314073380776</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H19">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I19">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J19">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>104.2528949267167</v>
+        <v>4.638221462571666</v>
       </c>
       <c r="R19">
-        <v>938.2760543404499</v>
+        <v>41.743993163145</v>
       </c>
       <c r="S19">
-        <v>0.1103894562038807</v>
+        <v>0.004952221096026856</v>
       </c>
       <c r="T19">
-        <v>0.1103894562038807</v>
+        <v>0.004952221096026855</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.142485</v>
+        <v>0.05847033333333334</v>
       </c>
       <c r="H20">
-        <v>3.427455</v>
+        <v>0.175411</v>
       </c>
       <c r="I20">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675702</v>
       </c>
       <c r="J20">
-        <v>0.3485479520314435</v>
+        <v>0.01693560307675701</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>16.62792053162167</v>
+        <v>0.845899901468</v>
       </c>
       <c r="R20">
-        <v>149.651284784595</v>
+        <v>7.613099113212</v>
       </c>
       <c r="S20">
-        <v>0.01760667755631471</v>
+        <v>0.000903165873165148</v>
       </c>
       <c r="T20">
-        <v>0.01760667755631471</v>
+        <v>0.0009031658731651478</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05847033333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.175411</v>
+      </c>
+      <c r="I21">
+        <v>0.01693560307675702</v>
+      </c>
+      <c r="J21">
+        <v>0.01693560307675701</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>72.34725666666667</v>
+      </c>
+      <c r="N21">
+        <v>217.04177</v>
+      </c>
+      <c r="O21">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="P21">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="Q21">
+        <v>4.230168213052223</v>
+      </c>
+      <c r="R21">
+        <v>38.07151391747001</v>
+      </c>
+      <c r="S21">
+        <v>0.004516543341767127</v>
+      </c>
+      <c r="T21">
+        <v>0.004516543341767127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.100258</v>
+      </c>
+      <c r="I22">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J22">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>22.495411</v>
+      </c>
+      <c r="N22">
+        <v>67.486233</v>
+      </c>
+      <c r="O22">
+        <v>0.08292345339295874</v>
+      </c>
+      <c r="P22">
+        <v>0.08292345339295874</v>
+      </c>
+      <c r="Q22">
+        <v>8.250251972012666</v>
+      </c>
+      <c r="R22">
+        <v>74.25226774811399</v>
+      </c>
+      <c r="S22">
+        <v>0.008808779872422274</v>
+      </c>
+      <c r="T22">
+        <v>0.008808779872422273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.100258</v>
+      </c>
+      <c r="I23">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J23">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>82.64333833333332</v>
+      </c>
+      <c r="N23">
+        <v>247.930015</v>
+      </c>
+      <c r="O23">
+        <v>0.3046430676248896</v>
+      </c>
+      <c r="P23">
+        <v>0.3046430676248896</v>
+      </c>
+      <c r="Q23">
+        <v>30.30966471598555</v>
+      </c>
+      <c r="R23">
+        <v>272.7869824438699</v>
+      </c>
+      <c r="S23">
+        <v>0.03236157700343642</v>
+      </c>
+      <c r="T23">
+        <v>0.03236157700343641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.100258</v>
+      </c>
+      <c r="I24">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J24">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>79.32606499999999</v>
+      </c>
+      <c r="N24">
+        <v>237.978195</v>
+      </c>
+      <c r="O24">
+        <v>0.2924148064631633</v>
+      </c>
+      <c r="P24">
+        <v>0.2924148064631633</v>
+      </c>
+      <c r="Q24">
+        <v>29.09304587492333</v>
+      </c>
+      <c r="R24">
+        <v>261.83741287431</v>
+      </c>
+      <c r="S24">
+        <v>0.03106259515465003</v>
+      </c>
+      <c r="T24">
+        <v>0.03106259515465002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.142485</v>
-      </c>
-      <c r="H21">
-        <v>3.427455</v>
-      </c>
-      <c r="I21">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="J21">
-        <v>0.3485479520314435</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>81.28845566666666</v>
-      </c>
-      <c r="N21">
-        <v>243.865367</v>
-      </c>
-      <c r="O21">
-        <v>0.2821345773094156</v>
-      </c>
-      <c r="P21">
-        <v>0.2821345773094157</v>
-      </c>
-      <c r="Q21">
-        <v>92.87084127233166</v>
-      </c>
-      <c r="R21">
-        <v>835.8375714509849</v>
-      </c>
-      <c r="S21">
-        <v>0.09833742911845378</v>
-      </c>
-      <c r="T21">
-        <v>0.09833742911845378</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.100258</v>
+      </c>
+      <c r="I25">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J25">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.467164</v>
+      </c>
+      <c r="N25">
+        <v>43.401492</v>
+      </c>
+      <c r="O25">
+        <v>0.05332941903938943</v>
+      </c>
+      <c r="P25">
+        <v>0.05332941903938943</v>
+      </c>
+      <c r="Q25">
+        <v>5.305870976104</v>
+      </c>
+      <c r="R25">
+        <v>47.752838784936</v>
+      </c>
+      <c r="S25">
+        <v>0.005665069335885088</v>
+      </c>
+      <c r="T25">
+        <v>0.005665069335885086</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3667526666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.100258</v>
+      </c>
+      <c r="I26">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="J26">
+        <v>0.1062278464293945</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>72.34725666666667</v>
+      </c>
+      <c r="N26">
+        <v>217.04177</v>
+      </c>
+      <c r="O26">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="P26">
+        <v>0.2666892534795989</v>
+      </c>
+      <c r="Q26">
+        <v>26.53354930851778</v>
+      </c>
+      <c r="R26">
+        <v>238.80194377666</v>
+      </c>
+      <c r="S26">
+        <v>0.02832982506300069</v>
+      </c>
+      <c r="T26">
+        <v>0.02832982506300069</v>
       </c>
     </row>
   </sheetData>
